--- a/midiurls.xlsx
+++ b/midiurls.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="256">
   <si>
     <t>Backbeat Studio</t>
   </si>
@@ -777,6 +777,18 @@
   </si>
   <si>
     <t>name</t>
+  </si>
+  <si>
+    <t>Chappell &amp; Co. was an English company that published music and manufactured pianos. Duplicate of Chappell &amp; Co (variation in name).</t>
+  </si>
+  <si>
+    <t>Midi music archive. Sue Keller established Ragtime Press to publish rags by little-known composers and the HVR label to document her music.</t>
+  </si>
+  <si>
+    <t>Chappell &amp; Co. was an English company that published music and manufactured pianos. Duplicate of WARNER CHAPPELL (variation in name).</t>
+  </si>
+  <si>
+    <t>Sue Keller is an American ragtime, blues and jazz pianist and singer, who has released several albums.</t>
   </si>
 </sst>
 </file>
@@ -1326,7 +1338,7 @@
   <dimension ref="A1:H98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1376,7 +1388,7 @@
         <v>101</v>
       </c>
       <c r="E2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -1395,6 +1407,9 @@
       <c r="D3" t="s">
         <v>101</v>
       </c>
+      <c r="E3" t="s">
+        <v>116</v>
+      </c>
       <c r="F3">
         <v>1</v>
       </c>
@@ -1432,6 +1447,9 @@
       <c r="D5" t="s">
         <v>102</v>
       </c>
+      <c r="E5" t="s">
+        <v>255</v>
+      </c>
       <c r="F5">
         <v>3</v>
       </c>
@@ -1449,6 +1467,9 @@
       <c r="D6" t="s">
         <v>101</v>
       </c>
+      <c r="E6" t="s">
+        <v>116</v>
+      </c>
       <c r="F6">
         <v>1</v>
       </c>
@@ -1466,6 +1487,9 @@
       <c r="D7" t="s">
         <v>101</v>
       </c>
+      <c r="E7" t="s">
+        <v>116</v>
+      </c>
       <c r="F7">
         <v>1</v>
       </c>
@@ -1664,7 +1688,7 @@
         <v>102</v>
       </c>
       <c r="E17" t="s">
-        <v>110</v>
+        <v>252</v>
       </c>
       <c r="F17">
         <v>4</v>
@@ -1804,7 +1828,7 @@
         <v>101</v>
       </c>
       <c r="E24" t="s">
-        <v>141</v>
+        <v>253</v>
       </c>
       <c r="F24">
         <v>1</v>
@@ -2379,7 +2403,7 @@
         <v>101</v>
       </c>
       <c r="E55" t="s">
-        <v>188</v>
+        <v>254</v>
       </c>
       <c r="F55">
         <v>4</v>
